--- a/Template_Projetos_v5_TestData.xlsx
+++ b/Template_Projetos_v5_TestData.xlsx
@@ -56,9 +56,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,9 +435,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="13" max="13"/>
+    <col width="80" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,27 +509,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Etapa 1 - Kick-off</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Etapa 2 - Levantamento</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Etapa 3 - Desenvolvimento</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Etapa 4 - Homologação</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Etapa 5 - Go Live</t>
+          <t>Atividades</t>
         </is>
       </c>
     </row>
@@ -586,32 +570,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Projeto finalizado com sucesso. Cliente muito satisfeito com a entrega.</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>15/09/2025</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>05/10/2025</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>15/11/2025</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>04/12/2025</t>
+          <t>Projeto finalizado com sucesso. Cliente muito satisfeito.</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>C|14/10/2025|01 - KICKOFF INTERNO - Gestor;C|10/10/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|16/10/2025|03 - Análise/Recebimento Layout Elétrico;C|27/10/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|14/10/2025|05 - Participar reunião de apresentação dos times;C|24/10/2025|06 - Registrar TODOS os contatos do cliente;C|24/10/2025|07 - Enviar documento: Sugestão de Servidores;C|24/10/2025|08 - Enviar documento: Solicitação Range IPs;C|24/10/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|28/10/2025|10 - Acompanhar retorno do cliente diariamente;C|04/11/2025|11 - Follow-up após 7 dias se sem resposta;C|05/11/2025|12 - Agendar reunião de definição;C|10/11/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|10/11/2025|14 - Documentar acordos/definições com o cliente;C|12/11/2025|15 - TERMO DE SEGURANÇA: Coletar assinaturas;C|18/11/2025|16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;C|20/11/2025|17 - Criar procedimento de acesso;C|22/11/2025|18 - Compartilhar com todos os times;C|25/11/2025|19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);C|04/12/2025|20 - Atualizar documentação no OneDrive</t>
         </is>
       </c>
     </row>
@@ -672,32 +636,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Entregue no prazo original. Equipe do cliente elogiou a qualidade.</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>30/10/2025</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>20/11/2025</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>10/12/2025</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>19/12/2025</t>
+          <t>Entregue no prazo original. Equipe elogiou qualidade.</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>C|15/10/2025|01 - KICKOFF INTERNO - Gestor;C|18/10/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|20/10/2025|03 - Análise/Recebimento Layout Elétrico;C|25/10/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|20/10/2025|05 - Participar reunião de apresentação dos times;C|28/10/2025|06 - Registrar TODOS os contatos do cliente;C|30/10/2025|07 - Enviar documento: Sugestão de Servidores;C|30/10/2025|08 - Enviar documento: Solicitação Range IPs;C|30/10/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|01/11/2025|10 - Acompanhar retorno do cliente diariamente;C|08/11/2025|11 - Follow-up após 7 dias se sem resposta;C|10/11/2025|12 - Agendar reunião de definição;C|15/11/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|15/11/2025|14 - Documentar acordos/definições com o cliente;C|20/11/2025|15 - TERMO DE SEGURANÇA: Coletar assinaturas;C|01/12/2025|16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;C|05/12/2025|17 - Criar procedimento de acesso;C|08/12/2025|18 - Compartilhar com todos os times;C|10/12/2025|19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);C|19/12/2025|20 - Atualizar documentação no OneDrive</t>
         </is>
       </c>
     </row>
@@ -761,29 +705,9 @@
           <t>Projeto complexo finalizado com 15 dias de antecipação!</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>15/07/2025</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>10/08/2025</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>05/09/2025</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>01/10/2025</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>04/11/2025</t>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>C|15/07/2025|01 - KICKOFF INTERNO - Gestor;C|18/07/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|22/07/2025|03 - Análise/Recebimento Layout Elétrico;C|25/07/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|20/07/2025|05 - Participar reunião de apresentação dos times;C|01/08/2025|06 - Registrar TODOS os contatos do cliente;C|05/08/2025|07 - Enviar documento: Sugestão de Servidores;C|05/08/2025|08 - Enviar documento: Solicitação Range IPs;C|05/08/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|08/08/2025|10 - Acompanhar retorno do cliente diariamente;C|15/08/2025|11 - Follow-up após 7 dias se sem resposta;C|18/08/2025|12 - Agendar reunião de definição;C|25/08/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|25/08/2025|14 - Documentar acordos/definições com o cliente;C|01/09/2025|15 - TERMO DE SEGURANÇA: Coletar assinaturas;C|15/09/2025|16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;C|20/09/2025|17 - Criar procedimento de acesso;C|25/09/2025|18 - Compartilhar com todos os times;C|28/09/2025|19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);C|04/11/2025|20 - Atualizar documentação no OneDrive</t>
         </is>
       </c>
     </row>
@@ -847,29 +771,9 @@
           <t>Sistema de voz implementado com sucesso.</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>01/11/2025</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>20/11/2025</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>15/12/2025</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>02/01/2026</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>08/01/2026</t>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>C|01/11/2025|01 - KICKOFF INTERNO - Gestor;C|05/11/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|08/11/2025|03 - Análise/Recebimento Layout Elétrico;C|12/11/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|08/11/2025|05 - Participar reunião de apresentação dos times;C|15/11/2025|06 - Registrar TODOS os contatos do cliente;C|18/11/2025|07 - Enviar documento: Sugestão de Servidores;C|18/11/2025|08 - Enviar documento: Solicitação Range IPs;C|18/11/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|20/11/2025|10 - Acompanhar retorno do cliente diariamente;C|27/11/2025|11 - Follow-up após 7 dias se sem resposta;C|01/12/2025|12 - Agendar reunião de definição;C|08/12/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|08/12/2025|14 - Documentar acordos/definições com o cliente;C|15/12/2025|15 - TERMO DE SEGURANÇA: Coletar assinaturas;C|22/12/2025|16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;C|26/12/2025|17 - Criar procedimento de acesso;C|28/12/2025|18 - Compartilhar com todos os times;C|02/01/2026|19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);C|08/01/2026|20 - Atualizar documentação no OneDrive</t>
         </is>
       </c>
     </row>
@@ -933,29 +837,9 @@
           <t>Sorting finalizado dentro do cronograma.</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>20/10/2025</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>10/11/2025</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>05/12/2025</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>28/12/2025</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>03/01/2026</t>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>C|20/10/2025|01 - KICKOFF INTERNO - Gestor;C|23/10/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|25/10/2025|03 - Análise/Recebimento Layout Elétrico;C|30/10/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|25/10/2025|05 - Participar reunião de apresentação dos times;C|01/11/2025|06 - Registrar TODOS os contatos do cliente;C|05/11/2025|07 - Enviar documento: Sugestão de Servidores;C|05/11/2025|08 - Enviar documento: Solicitação Range IPs;C|05/11/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|08/11/2025|10 - Acompanhar retorno do cliente diariamente;C|15/11/2025|11 - Follow-up após 7 dias se sem resposta;C|18/11/2025|12 - Agendar reunião de definição;C|25/11/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|25/11/2025|14 - Documentar acordos/definições com o cliente;C|01/12/2025|15 - TERMO DE SEGURANÇA: Coletar assinaturas;C|15/12/2025|16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;C|20/12/2025|17 - Criar procedimento de acesso;C|22/12/2025|18 - Compartilhar com todos os times;C|26/12/2025|19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);C|03/01/2026|20 - Atualizar documentação no OneDrive</t>
         </is>
       </c>
     </row>
@@ -987,7 +871,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Homologação</t>
+          <t>Validação Acessos</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1016,26 +900,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Homologação em andamento. Previsão de conclusão no prazo.</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>01/12/2025</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>15/12/2025</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+          <t>Validação de acessos em andamento. Previsão no prazo.</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>C|01/12/2025|01 - KICKOFF INTERNO - Gestor;C|05/12/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|08/12/2025|03 - Análise/Recebimento Layout Elétrico;C|10/12/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|08/12/2025|05 - Participar reunião de apresentação dos times;C|12/12/2025|06 - Registrar TODOS os contatos do cliente;C|15/12/2025|07 - Enviar documento: Sugestão de Servidores;C|15/12/2025|08 - Enviar documento: Solicitação Range IPs;C|15/12/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|18/12/2025|10 - Acompanhar retorno do cliente diariamente;C|26/12/2025|11 - Follow-up após 7 dias se sem resposta;C|02/01/2026|12 - Agendar reunião de definição;C|08/01/2026|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|08/01/2026|14 - Documentar acordos/definições com o cliente;C|12/01/2026|15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1065,7 +937,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Desenvolvimento</t>
+          <t>Termo Segurança</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1094,22 +966,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Desenvolvimento seguindo cronograma.</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>10/12/2025</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>28/12/2025</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+          <t>Coletando assinaturas do termo de segurança.</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>C|10/12/2025|01 - KICKOFF INTERNO - Gestor;C|13/12/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|16/12/2025|03 - Análise/Recebimento Layout Elétrico;C|18/12/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|15/12/2025|05 - Participar reunião de apresentação dos times;C|20/12/2025|06 - Registrar TODOS os contatos do cliente;C|22/12/2025|07 - Enviar documento: Sugestão de Servidores;C|22/12/2025|08 - Enviar documento: Solicitação Range IPs;C|22/12/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|26/12/2025|10 - Acompanhar retorno do cliente diariamente;C|03/01/2026|11 - Follow-up após 7 dias se sem resposta;C|08/01/2026|12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1139,7 +1003,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Levantamento</t>
+          <t>Reunião Definição</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1168,38 +1032,34 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Levantamento de requisitos em fase final.</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>05/01/2026</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+          <t>Reunião de definição agendada para 20/01.</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>C|05/01/2026|01 - KICKOFF INTERNO - Gestor;C|08/01/2026|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|10/01/2026|03 - Análise/Recebimento Layout Elétrico;C|12/01/2026|04 - Reportar pontos críticos ao PMO/Gestor;C|10/01/2026|05 - Participar reunião de apresentação dos times;C|14/01/2026|06 - Registrar TODOS os contatos do cliente;C|15/01/2026|07 - Enviar documento: Sugestão de Servidores;C|15/01/2026|08 - Enviar documento: Solicitação Range IPs;P||09 - Enviar documento: Solicitação Acesso Remoto;P||10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OMEGA - Expansão Sul</t>
+          <t>MU - Dashboard Ops</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Florianópolis - SC</t>
+          <t>Salvador - BA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Em Andamento</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Vermelho</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1214,292 +1074,1460 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Daiana</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>23/01/2026</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>25/01/2026</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Servidor indisponível</t>
-        </is>
-      </c>
+          <t>23/01/2026</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>18/01/2026</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>CRÍTICO: Go-live adiado por problema de infraestrutura.</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>01/10/2025</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>25/10/2025</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>20/11/2025</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>20/12/2025</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+          <t>Go-live previsto para esta semana.</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>C|15/11/2025|01 - KICKOFF INTERNO - Gestor;C|18/11/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|20/11/2025|03 - Análise/Recebimento Layout Elétrico;C|25/11/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|20/11/2025|05 - Participar reunião de apresentação dos times;C|28/11/2025|06 - Registrar TODOS os contatos do cliente;C|01/12/2025|07 - Enviar documento: Sugestão de Servidores;C|01/12/2025|08 - Enviar documento: Solicitação Range IPs;C|01/12/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|05/12/2025|10 - Acompanhar retorno do cliente diariamente;C|12/12/2025|11 - Follow-up após 7 dias se sem resposta;C|15/12/2025|12 - Agendar reunião de definição;C|22/12/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|22/12/2025|14 - Documentar acordos/definições com o cliente;C|28/12/2025|15 - TERMO DE SEGURANÇA: Coletar assinaturas;C|10/01/2026|16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;C|15/01/2026|17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SIGMA - Migração DB</t>
+          <t>NU - API Gateway</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Salvador - BA</t>
+          <t>Recife - PE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atrasado</t>
+          <t>Em Andamento</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vermelho</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Desenvolvimento</t>
+          <t>Reunião Definição</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Ivan</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>05/01/2026</t>
+          <t>10/02/2026</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>30/01/2026</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Equipe reduzida</t>
-        </is>
-      </c>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Atraso devido a ausência de recursos.</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>15/09/2025</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+          <t>Definindo especificações técnicas das APIs.</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>C|20/12/2025|01 - KICKOFF INTERNO - Gestor;C|23/12/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|26/12/2025|03 - Análise/Recebimento Layout Elétrico;C|27/12/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|26/12/2025|05 - Participar reunião de apresentação dos times;C|03/01/2026|06 - Registrar TODOS os contatos do cliente;C|06/01/2026|07 - Enviar documento: Sugestão de Servidores;C|06/01/2026|08 - Enviar documento: Solicitação Range IPs;C|06/01/2026|09 - Enviar documento: Solicitação Acesso Remoto;C|10/01/2026|10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>THETA - VPN Setup</t>
+          <t>XI - Mobile App</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Recife - PE</t>
+          <t>Brasília - DF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aguardando Cliente</t>
+          <t>Em Andamento</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Amarelo</t>
+          <t>Verde</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Homologação</t>
+          <t>Envio Documentos</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ivan</t>
+          <t>Daiana</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>20/02/2026</t>
+          <t>15/03/2026</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20/02/2026</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Aguardando aprovação cliente</t>
-        </is>
-      </c>
+          <t>15/03/2026</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12/01/2026</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Homologação aguardando validação do cliente.</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>01/12/2025</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>20/12/2025</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>10/01/2026</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+          <t>Enviando documentação técnica para o cliente.</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>C|10/01/2026|01 - KICKOFF INTERNO - Gestor;C|12/01/2026|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|13/01/2026|03 - Análise/Recebimento Layout Elétrico;C|14/01/2026|04 - Reportar pontos críticos ao PMO/Gestor;C|13/01/2026|05 - Participar reunião de apresentação dos times;C|15/01/2026|06 - Registrar TODOS os contatos do cliente;P||07 - Enviar documento: Sugestão de Servidores;P||08 - Enviar documento: Solicitação Range IPs;P||09 - Enviar documento: Solicitação Acesso Remoto;P||10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PHI - Integração ERP</t>
+          <t>OMICRON - Cloud Migration</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Brasília - DF</t>
+          <t>Goiânia - GO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Em Andamento</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Termo Segurança</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>05/02/2026</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>05/02/2026</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Migração para cloud em progresso.</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>C|01/12/2025|01 - KICKOFF INTERNO - Gestor;C|04/12/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|06/12/2025|03 - Análise/Recebimento Layout Elétrico;C|10/12/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|08/12/2025|05 - Participar reunião de apresentação dos times;C|12/12/2025|06 - Registrar TODOS os contatos do cliente;C|15/12/2025|07 - Enviar documento: Sugestão de Servidores;C|15/12/2025|08 - Enviar documento: Solicitação Range IPs;C|15/12/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|18/12/2025|10 - Acompanhar retorno do cliente diariamente;C|26/12/2025|11 - Follow-up após 7 dias se sem resposta;C|05/01/2026|12 - Agendar reunião de definição;C|10/01/2026|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PI - Security Audit</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vitória - ES</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Em Andamento</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Verde</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Registrar Contatos</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Vinicius</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>20/03/2026</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20/03/2026</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>16/01/2026</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Iniciando auditoria de segurança.</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>C|15/01/2026|01 - KICKOFF INTERNO - Gestor;C|16/01/2026|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|16/01/2026|03 - Análise/Recebimento Layout Elétrico;C|16/01/2026|04 - Reportar pontos críticos ao PMO/Gestor;P||05 - Participar reunião de apresentação dos times;P||06 - Registrar TODOS os contatos do cliente;P||07 - Enviar documento: Sugestão de Servidores;P||08 - Enviar documento: Solicitação Range IPs;P||09 - Enviar documento: Solicitação Acesso Remoto;P||10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RHO - ERP Update</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Curitiba - PR</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Em Andamento</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Amarelo</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Validação Acessos</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>15/01/2026</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Pequeno atraso na validação. Recuperável.</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>C|01/11/2025|01 - KICKOFF INTERNO - Gestor;C|05/11/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|08/11/2025|03 - Análise/Recebimento Layout Elétrico;C|12/11/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|10/11/2025|05 - Participar reunião de apresentação dos times;C|15/11/2025|06 - Registrar TODOS os contatos do cliente;C|18/11/2025|07 - Enviar documento: Sugestão de Servidores;C|18/11/2025|08 - Enviar documento: Solicitação Range IPs;C|18/11/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|22/11/2025|10 - Acompanhar retorno do cliente diariamente;C|01/12/2025|11 - Follow-up após 7 dias se sem resposta;C|05/12/2025|12 - Agendar reunião de definição;C|15/12/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|15/12/2025|14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SIGMA - Data Lake</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Em Andamento</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Amarelo</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Reunião Definição</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ivan</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>05/02/2026</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Complexidade maior que o esperado.</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>C|15/11/2025|01 - KICKOFF INTERNO - Gestor;C|18/11/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|20/11/2025|03 - Análise/Recebimento Layout Elétrico;C|25/11/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|20/11/2025|05 - Participar reunião de apresentação dos times;C|28/11/2025|06 - Registrar TODOS os contatos do cliente;C|01/12/2025|07 - Enviar documento: Sugestão de Servidores;C|01/12/2025|08 - Enviar documento: Solicitação Range IPs;C|01/12/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|05/12/2025|10 - Acompanhar retorno do cliente diariamente;C|12/12/2025|11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TAU - Inventory System</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Em Andamento</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Amarelo</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Envio Documentos</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Daiana</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Aguardando definição de requisitos adicionais.</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>C|01/12/2025|01 - KICKOFF INTERNO - Gestor;C|05/12/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|08/12/2025|03 - Análise/Recebimento Layout Elétrico;C|12/12/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|10/12/2025|05 - Participar reunião de apresentação dos times;C|15/12/2025|06 - Registrar TODOS os contatos do cliente;C|18/12/2025|07 - Enviar documento: Sugestão de Servidores;C|18/12/2025|08 - Enviar documento: Solicitação Range IPs;C|18/12/2025|09 - Enviar documento: Solicitação Acesso Remoto;P||10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UPSILON - CRM Integration</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Belo Horizonte - MG</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Em Andamento</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Amarelo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Go Live</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>15/01/2026</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Go-live adiado por 10 dias. Ajustes finais.</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>C|01/10/2025|01 - KICKOFF INTERNO - Gestor;C|05/10/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|08/10/2025|03 - Análise/Recebimento Layout Elétrico;C|12/10/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|10/10/2025|05 - Participar reunião de apresentação dos times;C|15/10/2025|06 - Registrar TODOS os contatos do cliente;C|18/10/2025|07 - Enviar documento: Sugestão de Servidores;C|18/10/2025|08 - Enviar documento: Solicitação Range IPs;C|18/10/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|22/10/2025|10 - Acompanhar retorno do cliente diariamente;C|01/11/2025|11 - Follow-up após 7 dias se sem resposta;C|05/11/2025|12 - Agendar reunião de definição;C|15/11/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|15/11/2025|14 - Documentar acordos/definições com o cliente;C|25/11/2025|15 - TERMO DE SEGURANÇA: Coletar assinaturas;C|10/01/2026|16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PHI - Chatbot Deploy</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Porto Alegre - RS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Em Andamento</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Amarelo</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Registrar Contatos</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Vinicius</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>28/02/2026</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10/03/2026</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Escopo expandido pelo cliente.</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>C|20/12/2025|01 - KICKOFF INTERNO - Gestor;C|23/12/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|26/12/2025|03 - Análise/Recebimento Layout Elétrico;C|27/12/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|26/12/2025|05 - Participar reunião de apresentação dos times;C|03/01/2026|06 - Registrar TODOS os contatos do cliente;C|06/01/2026|07 - Enviar documento: Sugestão de Servidores;P||08 - Enviar documento: Solicitação Range IPs;P||09 - Enviar documento: Solicitação Acesso Remoto;P||10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CHI - Server Migration</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Campinas - SP</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Vermelho</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Go Live</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>25/01/2026</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Servidor indisponível</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>16/01/2026</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>CRÍTICO: Aguardando liberação de servidor.</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>C|01/09/2025|01 - KICKOFF INTERNO - Gestor;C|05/09/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|08/09/2025|03 - Análise/Recebimento Layout Elétrico;C|12/09/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|10/09/2025|05 - Participar reunião de apresentação dos times;C|15/09/2025|06 - Registrar TODOS os contatos do cliente;C|18/09/2025|07 - Enviar documento: Sugestão de Servidores;C|18/09/2025|08 - Enviar documento: Solicitação Range IPs;C|18/09/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|22/09/2025|10 - Acompanhar retorno do cliente diariamente;C|01/10/2025|11 - Follow-up após 7 dias se sem resposta;C|05/10/2025|12 - Agendar reunião de definição;C|15/10/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|15/10/2025|14 - Documentar acordos/definições com o cliente;C|25/10/2025|15 - TERMO DE SEGURANÇA: Coletar assinaturas;C|10/11/2025|16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;C|20/11/2025|17 - Criar procedimento de acesso;C|25/11/2025|18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PSI - Network Upgrade</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Manaus - AM</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Vermelho</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Termo Segurança</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Ivan</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>30/01/2026</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Equipamentos atrasados</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>8</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CRÍTICO: Fornecedor não entregou equipamentos.</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>C|01/10/2025|01 - KICKOFF INTERNO - Gestor;C|05/10/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|08/10/2025|03 - Análise/Recebimento Layout Elétrico;C|12/10/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|10/10/2025|05 - Participar reunião de apresentação dos times;C|15/10/2025|06 - Registrar TODOS os contatos do cliente;C|18/10/2025|07 - Enviar documento: Sugestão de Servidores;C|18/10/2025|08 - Enviar documento: Solicitação Range IPs;C|18/10/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|22/10/2025|10 - Acompanhar retorno do cliente diariamente;C|01/11/2025|11 - Follow-up após 7 dias se sem resposta;C|05/11/2025|12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OMEGA - Backup System</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fortaleza - CE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Vermelho</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Reunião Definição</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Daiana</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>08/01/2026</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>05/02/2026</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Licenças pendentes</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>13</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CRÍTICO: Aguardando aprovação de licenças.</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>C|15/10/2025|01 - KICKOFF INTERNO - Gestor;C|18/10/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|20/10/2025|03 - Análise/Recebimento Layout Elétrico;C|25/10/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|22/10/2025|05 - Participar reunião de apresentação dos times;C|28/10/2025|06 - Registrar TODOS os contatos do cliente;C|01/11/2025|07 - Enviar documento: Sugestão de Servidores;C|01/11/2025|08 - Enviar documento: Solicitação Range IPs;P||09 - Enviar documento: Solicitação Acesso Remoto;P||10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ALPHA2 - Firewall Config</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Salvador - BA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Vermelho</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Validação Acessos</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>28/01/2026</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Política de segurança</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>08/01/2026</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>10</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CRÍTICO: Revisão de políticas de segurança.</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>C|15/09/2025|01 - KICKOFF INTERNO - Gestor;C|18/09/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|20/09/2025|03 - Análise/Recebimento Layout Elétrico;C|25/09/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|22/09/2025|05 - Participar reunião de apresentação dos times;C|28/09/2025|06 - Registrar TODOS os contatos do cliente;C|01/10/2025|07 - Enviar documento: Sugestão de Servidores;C|01/10/2025|08 - Enviar documento: Solicitação Range IPs;C|01/10/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|05/10/2025|10 - Acompanhar retorno do cliente diariamente;C|15/10/2025|11 - Follow-up após 7 dias se sem resposta;C|20/10/2025|12 - Agendar reunião de definição;C|01/11/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|01/11/2025|14 - Documentar acordos/definições com o cliente;C|15/11/2025|15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BETA2 - VPN Enterprise</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Recife - PE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Vermelho</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Reunião Definição</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Vinicius</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Recurso em férias</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>15</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CRÍTICO: Recurso chave em férias.</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>C|01/11/2025|01 - KICKOFF INTERNO - Gestor;C|05/11/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|08/11/2025|03 - Análise/Recebimento Layout Elétrico;C|12/11/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|10/11/2025|05 - Participar reunião de apresentação dos times;C|15/11/2025|06 - Registrar TODOS os contatos do cliente;C|18/11/2025|07 - Enviar documento: Sugestão de Servidores;C|18/11/2025|08 - Enviar documento: Solicitação Range IPs;C|18/11/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|22/11/2025|10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GAMMA2 - VPN Produção</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Curitiba - PR</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Aguardando Cliente</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Amarelo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Validação Acessos</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>15/02/2026</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>15/02/2026</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Aguardando aprovação cliente</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Validação aguardando aprovação do cliente.</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>C|01/12/2025|01 - KICKOFF INTERNO - Gestor;C|05/12/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|08/12/2025|03 - Análise/Recebimento Layout Elétrico;C|12/12/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|10/12/2025|05 - Participar reunião de apresentação dos times;C|15/12/2025|06 - Registrar TODOS os contatos do cliente;C|18/12/2025|07 - Enviar documento: Sugestão de Servidores;C|18/12/2025|08 - Enviar documento: Solicitação Range IPs;C|18/12/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|22/12/2025|10 - Acompanhar retorno do cliente diariamente;C|02/01/2026|11 - Follow-up após 7 dias se sem resposta;C|05/01/2026|12 - Agendar reunião de definição;C|10/01/2026|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DELTA2 - Implantação WCS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Porto Alegre - RS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Aguardando Cliente</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Amarelo</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Reunião Definição</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Ivan</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>20/02/2026</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Cliente não responde</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>7</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Múltiplas tentativas de contato sem retorno.</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>C|15/11/2025|01 - KICKOFF INTERNO - Gestor;C|18/11/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|20/11/2025|03 - Análise/Recebimento Layout Elétrico;C|25/11/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|22/11/2025|05 - Participar reunião de apresentação dos times;C|28/11/2025|06 - Registrar TODOS os contatos do cliente;C|01/12/2025|07 - Enviar documento: Sugestão de Servidores;C|01/12/2025|08 - Enviar documento: Solicitação Range IPs;C|01/12/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|05/12/2025|10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EPSILON2 - Servidor AI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>São Paulo - SP</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Aguardando Cliente</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Verde</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Levantamento</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Go Live</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Daiana</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>01/02/2026</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>01/02/2026</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Aguardando OK final</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>15/01/2026</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Go-live depende apenas de OK final do cliente.</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>C|01/10/2025|01 - KICKOFF INTERNO - Gestor;C|05/10/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|08/10/2025|03 - Análise/Recebimento Layout Elétrico;C|12/10/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|10/10/2025|05 - Participar reunião de apresentação dos times;C|15/10/2025|06 - Registrar TODOS os contatos do cliente;C|18/10/2025|07 - Enviar documento: Sugestão de Servidores;C|18/10/2025|08 - Enviar documento: Solicitação Range IPs;C|18/10/2025|09 - Enviar documento: Solicitação Acesso Remoto;C|22/10/2025|10 - Acompanhar retorno do cliente diariamente;C|01/11/2025|11 - Follow-up após 7 dias se sem resposta;C|05/11/2025|12 - Agendar reunião de definição;C|15/11/2025|13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;C|15/11/2025|14 - Documentar acordos/definições com o cliente;C|25/11/2025|15 - TERMO DE SEGURANÇA: Coletar assinaturas;C|10/12/2025|16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;C|15/01/2026|17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ZETA2 - Migração Dados</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro - RJ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Aguardando Cliente</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Vermelho</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Envio Documentos</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Anderson</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>15/03/2026</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>15/03/2026</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Documentação pendente</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Aguardando documentação técnica do ERP.</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>20/12/2025</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>10/03/2026</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>10/03/2026</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Documentação incompleta</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>19/12/2025</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>30</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CRÍTICO: Cliente não enviou documentação base.</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>C|04/12/2025|01 - KICKOFF INTERNO - Gestor;C|08/12/2025|02 - Analisar documentos (Masterdata + Cronograma + Gravação);C|10/12/2025|03 - Análise/Recebimento Layout Elétrico;C|15/12/2025|04 - Reportar pontos críticos ao PMO/Gestor;C|12/12/2025|05 - Participar reunião de apresentação dos times;P||06 - Registrar TODOS os contatos do cliente;P||07 - Enviar documento: Sugestão de Servidores;P||08 - Enviar documento: Solicitação Range IPs;P||09 - Enviar documento: Solicitação Acesso Remoto;P||10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ETA - Novo CD Norte</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Belém - PA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Não Iniciado</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Aguardando Início</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Vinicius</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>17/06/2026</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>17/06/2026</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Projeto aprovado. Kick-off agendado para 01/02/2026.</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>P||01 - KICKOFF INTERNO - Gestor;P||02 - Analisar documentos (Masterdata + Cronograma + Gravação);P||03 - Análise/Recebimento Layout Elétrico;P||04 - Reportar pontos críticos ao PMO/Gestor;P||05 - Participar reunião de apresentação dos times;P||06 - Registrar TODOS os contatos do cliente;P||07 - Enviar documento: Sugestão de Servidores;P||08 - Enviar documento: Solicitação Range IPs;P||09 - Enviar documento: Solicitação Acesso Remoto;P||10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>THETA2 - Expansão Sul</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Florianópolis - SC</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Não Iniciado</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Aguardando Início</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>17/07/2026</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>17/07/2026</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Em fase de contratação.</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>P||01 - KICKOFF INTERNO - Gestor;P||02 - Analisar documentos (Masterdata + Cronograma + Gravação);P||03 - Análise/Recebimento Layout Elétrico;P||04 - Reportar pontos críticos ao PMO/Gestor;P||05 - Participar reunião de apresentação dos times;P||06 - Registrar TODOS os contatos do cliente;P||07 - Enviar documento: Sugestão de Servidores;P||08 - Enviar documento: Solicitação Range IPs;P||09 - Enviar documento: Solicitação Acesso Remoto;P||10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>IOTA - Retrofit Manaus</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Manaus - AM</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Não Iniciado</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Cinza</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Aguardando Início</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Ivan</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>06/08/2026</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>06/08/2026</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Aguardando definição de budget.</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>P||01 - KICKOFF INTERNO - Gestor;P||02 - Analisar documentos (Masterdata + Cronograma + Gravação);P||03 - Análise/Recebimento Layout Elétrico;P||04 - Reportar pontos críticos ao PMO/Gestor;P||05 - Participar reunião de apresentação dos times;P||06 - Registrar TODOS os contatos do cliente;P||07 - Enviar documento: Sugestão de Servidores;P||08 - Enviar documento: Solicitação Range IPs;P||09 - Enviar documento: Solicitação Acesso Remoto;P||10 - Acompanhar retorno do cliente diariamente;P||11 - Follow-up após 7 dias se sem resposta;P||12 - Agendar reunião de definição;P||13 - Realizar reunião de definição: Servidores, Acesso Remoto, Range IPs;P||14 - Documentar acordos/definições com o cliente;P||15 - TERMO DE SEGURANÇA: Coletar assinaturas;P||16 - VALIDAÇÃO DE ACESSOS: Testar acessos com SUAS credenciais;P||17 - Criar procedimento de acesso;P||18 - Compartilhar com todos os times;P||19 - LEMBRETES: 1 (+15 dias) 2 (+30 dias) 3 FINAL (+45 dias);P||20 - Atualizar documentação no OneDrive</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
